--- a/docs/entidades.xlsx
+++ b/docs/entidades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="entidades" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="146">
   <si>
     <t xml:space="preserve">Identificador</t>
   </si>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">LCM</t>
   </si>
   <si>
-    <t xml:space="preserve">La Casa de la mujer</t>
+    <t xml:space="preserve">LA CASA DE LA MUJER</t>
   </si>
   <si>
     <t xml:space="preserve">Organizaciones sociales</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">PMH</t>
   </si>
   <si>
-    <t xml:space="preserve">PASTORAL MOVILIDAD HUMANA</t>
+    <t xml:space="preserve">PASTORAL DE LA MOVILIDAD HUMANA</t>
   </si>
   <si>
     <t xml:space="preserve">ASAFAV</t>
@@ -123,13 +123,13 @@
     <t xml:space="preserve">RNTT</t>
   </si>
   <si>
-    <t xml:space="preserve">RED NACIONAL DE TRATA Y TRAFICO</t>
+    <t xml:space="preserve">RED NACIONAL CONTRA LA TRATA Y TRÁFICO</t>
   </si>
   <si>
     <t xml:space="preserve">ZARLET</t>
   </si>
   <si>
-    <t xml:space="preserve">ZARLE LA QUE ILUMINA</t>
+    <t xml:space="preserve">ZARLET LA QUE ILUMINA</t>
   </si>
   <si>
     <t xml:space="preserve">UNICEF</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">VSM</t>
   </si>
   <si>
-    <t xml:space="preserve">VISION MUNDIAL</t>
+    <t xml:space="preserve">VISIÓN MUNDIAL</t>
   </si>
   <si>
     <t xml:space="preserve">LMJ</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">LEVANTATE MUJER</t>
   </si>
   <si>
-    <t xml:space="preserve">INFANTIL</t>
+    <t xml:space="preserve">INFANTE</t>
   </si>
   <si>
     <t xml:space="preserve">HMN</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">DIRTT</t>
   </si>
   <si>
-    <t xml:space="preserve">DIRECCION DE TRATA Y TRAFICO</t>
+    <t xml:space="preserve">DIRECCION DE TRATA Y TRÁFICO</t>
   </si>
   <si>
     <t xml:space="preserve">POLBOL</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">CPTT</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSEJO PLURINACIONAL DE TRATA Y TRAFICO</t>
+    <t xml:space="preserve">CONSEJO PLURINACIONAL CONTRA LA TRATA Y TRÁFICO</t>
   </si>
   <si>
     <t xml:space="preserve">MINTRA</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">MINPLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DE PLANIFICACION</t>
+    <t xml:space="preserve">MINISTERIO DE PLANIFICACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">SEDEGES</t>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">MINEDU</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DE EDUCACION </t>
+    <t xml:space="preserve">MINISTERIO DE EDUCACIÓN </t>
   </si>
   <si>
     <t xml:space="preserve">CEPAT</t>
@@ -324,13 +324,13 @@
     <t xml:space="preserve">CNMIG</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSEJO NACIONAL DE MIGRACION</t>
+    <t xml:space="preserve">CONSEJO NACIONAL DE MIGRACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">MINCOM</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DE COMUNICACION</t>
+    <t xml:space="preserve">MINISTERIO DE COMUNICACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">CSMAG</t>
@@ -342,10 +342,73 @@
     <t xml:space="preserve">MINECO</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DE ECONOMIA</t>
+    <t xml:space="preserve">MINISTERIO DE ECONOMÍA</t>
   </si>
   <si>
     <t xml:space="preserve">UIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNIDAD DE DERECHOS HUMANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDACIÓN ESTRELLAS DE LA CALLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMIENTO VUELA LIBRE – ICCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINISTERIO DE DEFENSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUJERES EN ACCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRO DE ESTUDIOS Y APOYO AL DESARROLLO LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA TEJIENDO REDES SEGURAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDACIÓN SCALABRINI – CASA DEL MIGRANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENMUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENMUNDO-BOLIVIA VENEZOLANOS EN EL MUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSEJO DEPARTAMENTAL CONTRA LA TRATA Y TRÁFICO</t>
   </si>
   <si>
     <t xml:space="preserve">from</t>
@@ -568,21 +631,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.02"/>
@@ -1535,6 +1598,193 @@
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1553,15 +1803,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.95"/>
@@ -1573,31 +1823,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,6 +3020,174 @@
       </c>
       <c r="H104" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2790,11 +3208,11 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2883,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -2900,13 +3318,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -2923,13 +3341,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3</v>
@@ -2949,7 +3367,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>49</v>
